--- a/documents/ISA.xlsx
+++ b/documents/ISA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naoya\OneDrive\ドキュメント\慶應義塾大学大学院\計算機システム設計論\compsys2018-6\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FA01A764-E5D5-4EA3-9275-F4F1F28CFD1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{80C438F1-E5FD-4156-8A30-8ED91F7346A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="命令" sheetId="1" r:id="rId1"/>
     <sheet name="レジスタ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
   <si>
     <t>背景灰色は実装しない</t>
   </si>
@@ -224,9 +224,6 @@
     <t>if (rs=rt) pc=pc+4+offset</t>
   </si>
   <si>
-    <t>beq rs,rt,imm</t>
-  </si>
-  <si>
     <t>offset</t>
   </si>
   <si>
@@ -245,25 +242,10 @@
     <t>j</t>
   </si>
   <si>
-    <t>pc=pc+4+offset</t>
-  </si>
-  <si>
-    <t>j offset</t>
-  </si>
-  <si>
-    <t>absolute_addr</t>
-  </si>
-  <si>
     <t>jal</t>
   </si>
   <si>
-    <t>jal offset</t>
-  </si>
-  <si>
     <t>lb</t>
-  </si>
-  <si>
-    <t>base</t>
   </si>
   <si>
     <t>sb</t>
@@ -303,6 +285,65 @@
   </si>
   <si>
     <t>ゼロレジスタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>paddr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>j paddr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jal paddr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pc=paddr&lt;&lt;2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pc=paddr&lt;&lt;2, $15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>beq rs,rt,imm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lw rt,base,offset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sw rt,base,offset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8c240000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト入力→</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>base</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -346,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -363,6 +404,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -372,12 +433,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -392,6 +450,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -798,140 +868,279 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="str">
+        <f>LEFT(RIGHT(HEX2BIN(LEFT(RIGHT($F$1,_xlfn.FLOOR.MATH(G$3/4)+1),1),4),MOD(G$3,4)+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:AL1" si="0">LEFT(RIGHT(HEX2BIN(LEFT(RIGHT($F$1,_xlfn.FLOOR.MATH(H$3/4)+1),1),4),MOD(H$3,4)+1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N1" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q1" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T1" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V1" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD1" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL1" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
+      <c r="F3" s="8"/>
+      <c r="G3" s="2">
         <v>31</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>30</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>29</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>28</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>27</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>26</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>25</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="8">
         <v>24</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>23</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>22</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>21</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="2">
         <v>20</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="2">
         <v>19</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>18</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>17</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="8">
         <v>16</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="2">
         <v>15</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="2">
         <v>14</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="2">
         <v>13</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="2">
         <v>12</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="2">
         <v>11</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="2">
         <v>10</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="2">
         <v>9</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="8">
         <v>8</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="2">
         <v>7</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AF3" s="2">
         <v>6</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="2">
         <v>5</v>
       </c>
-      <c r="AH3" s="3">
+      <c r="AH3" s="2">
         <v>4</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="2">
         <v>3</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="2">
         <v>2</v>
       </c>
-      <c r="AK3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="3">
+      <c r="AK3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4">
@@ -952,34 +1161,34 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1" t="s">
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
       <c r="AG4">
         <v>1</v>
       </c>
@@ -1000,19 +1209,19 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G5">
@@ -1033,34 +1242,34 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1" t="s">
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1" t="s">
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
       <c r="AG5">
         <v>1</v>
       </c>
@@ -1081,19 +1290,19 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G6">
@@ -1114,34 +1323,34 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1" t="s">
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1" t="s">
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
       <c r="AG6">
         <v>1</v>
       </c>
@@ -1162,19 +1371,19 @@
       </c>
     </row>
     <row r="7" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G7">
@@ -1195,34 +1404,34 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1" t="s">
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1" t="s">
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
       <c r="AG7">
         <v>0</v>
       </c>
@@ -1243,19 +1452,19 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G8">
@@ -1276,34 +1485,34 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1" t="s">
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1" t="s">
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
       <c r="AG8">
         <v>1</v>
       </c>
@@ -1324,19 +1533,19 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G9">
@@ -1357,34 +1566,34 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1" t="s">
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1" t="s">
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
       <c r="AG9">
         <v>1</v>
       </c>
@@ -1405,19 +1614,19 @@
       </c>
     </row>
     <row r="10" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G10">
@@ -1438,34 +1647,34 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1" t="s">
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1" t="s">
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
       <c r="AG10">
         <v>1</v>
       </c>
@@ -1486,19 +1695,19 @@
       </c>
     </row>
     <row r="11" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G11">
@@ -1519,50 +1728,50 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0</v>
-      </c>
-      <c r="V11" s="6">
-        <v>0</v>
-      </c>
-      <c r="W11" s="6">
-        <v>0</v>
-      </c>
-      <c r="X11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1" t="s">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
       <c r="AG11">
         <v>0</v>
       </c>
@@ -1583,13 +1792,13 @@
       </c>
     </row>
     <row r="12" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G12">
@@ -1610,50 +1819,50 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="6">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6">
-        <v>0</v>
-      </c>
-      <c r="U12" s="6">
-        <v>0</v>
-      </c>
-      <c r="V12" s="6">
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
-        <v>0</v>
-      </c>
-      <c r="X12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="1" t="s">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
       <c r="AG12">
         <v>0</v>
       </c>
@@ -1674,16 +1883,16 @@
       </c>
     </row>
     <row r="13" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G13">
@@ -1704,655 +1913,664 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1" t="s">
+      <c r="M13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+    </row>
+    <row r="14" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-    </row>
-    <row r="14" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+    </row>
+    <row r="15" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-    </row>
-    <row r="15" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+    </row>
+    <row r="16" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-    </row>
-    <row r="16" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+    </row>
+    <row r="17" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-    </row>
-    <row r="17" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+    </row>
+    <row r="18" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-    </row>
-    <row r="18" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+    </row>
+    <row r="19" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+    </row>
+    <row r="20" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+    </row>
+    <row r="21" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-    </row>
-    <row r="19" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+    </row>
+    <row r="22" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+    </row>
+    <row r="23" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-    </row>
-    <row r="20" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="E23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+    </row>
+    <row r="24" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-    </row>
-    <row r="21" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-    </row>
-    <row r="22" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-    </row>
-    <row r="23" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-    </row>
-    <row r="24" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>75</v>
+      <c r="E24" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2372,38 +2590,38 @@
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
+      <c r="M24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
     </row>
     <row r="25" spans="1:38" ht="18.75" customHeight="1"/>
     <row r="26" spans="1:38" ht="18.75" customHeight="1"/>
@@ -2483,7 +2701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2496,13 +2714,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2510,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2521,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2532,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2543,7 +2761,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2554,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2565,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2576,7 +2794,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2587,7 +2805,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2598,7 +2816,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2609,7 +2827,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2620,7 +2838,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2631,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2666,7 +2884,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2677,7 +2895,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2688,7 +2906,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2699,7 +2917,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2710,7 +2928,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2721,7 +2939,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2732,7 +2950,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2743,7 +2961,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2754,7 +2972,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2765,7 +2983,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2776,7 +2994,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2787,7 +3005,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2798,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2809,7 +3027,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2820,7 +3038,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2831,7 +3049,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2842,7 +3060,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>0</v>

--- a/documents/ISA.xlsx
+++ b/documents/ISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naoya\OneDrive\ドキュメント\慶應義塾大学大学院\計算機システム設計論\compsys2018-6\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{80C438F1-E5FD-4156-8A30-8ED91F7346A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5376EE0-F862-41B1-BE12-5729E0B1DD5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="命令" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
   <si>
     <t>背景灰色は実装しない</t>
   </si>
@@ -344,6 +344,62 @@
   </si>
   <si>
     <t>base</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>32bit読み込み</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>32bit書き込み</t>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8bit読み取り</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8bit書き込み</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lb rt,base,offset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sb rt,base,offset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rt=dmem(base+offset)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dmem(base+offset)=rt</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -452,9 +508,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -463,6 +516,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -850,7 +906,7 @@
   <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -871,7 +927,7 @@
       <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>88</v>
       </c>
       <c r="G1" t="str">
@@ -902,7 +958,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N1" s="7" t="str">
+      <c r="N1" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -934,7 +990,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V1" s="7" t="str">
+      <c r="V1" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -966,7 +1022,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD1" s="7" t="str">
+      <c r="AD1" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -998,7 +1054,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL1" s="7" t="str">
+      <c r="AL1" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1007,11 +1063,11 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AL2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AL2" s="6"/>
     </row>
     <row r="3" spans="1:38" ht="18.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1029,7 +1085,7 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2">
         <v>31</v>
       </c>
@@ -1051,7 +1107,7 @@
       <c r="M3" s="2">
         <v>25</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>24</v>
       </c>
       <c r="O3" s="2">
@@ -1075,7 +1131,7 @@
       <c r="U3" s="2">
         <v>17</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="7">
         <v>16</v>
       </c>
       <c r="W3" s="2">
@@ -1099,7 +1155,7 @@
       <c r="AC3" s="2">
         <v>9</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AD3" s="7">
         <v>8</v>
       </c>
       <c r="AE3" s="2">
@@ -1123,7 +1179,7 @@
       <c r="AK3" s="2">
         <v>1</v>
       </c>
-      <c r="AL3" s="8">
+      <c r="AL3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1161,34 +1217,34 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6" t="s">
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6" t="s">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
       <c r="AG4">
         <v>1</v>
       </c>
@@ -1242,34 +1298,34 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6" t="s">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6" t="s">
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6" t="s">
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
       <c r="AG5">
         <v>1</v>
       </c>
@@ -1323,34 +1379,34 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6" t="s">
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6" t="s">
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
       <c r="AG6">
         <v>1</v>
       </c>
@@ -1404,34 +1460,34 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6" t="s">
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6" t="s">
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
       <c r="AG7">
         <v>0</v>
       </c>
@@ -1485,34 +1541,34 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6" t="s">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6" t="s">
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6" t="s">
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
       <c r="AG8">
         <v>1</v>
       </c>
@@ -1566,34 +1622,34 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6" t="s">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6" t="s">
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6" t="s">
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
       <c r="AG9">
         <v>1</v>
       </c>
@@ -1647,34 +1703,34 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6" t="s">
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6" t="s">
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6" t="s">
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
       <c r="AG10">
         <v>1</v>
       </c>
@@ -1728,13 +1784,13 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="5">
         <v>0</v>
       </c>
@@ -1765,13 +1821,13 @@
       <c r="AA11" s="5">
         <v>0</v>
       </c>
-      <c r="AB11" s="6" t="s">
+      <c r="AB11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
       <c r="AG11">
         <v>0</v>
       </c>
@@ -1819,13 +1875,13 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="5">
         <v>0</v>
       </c>
@@ -1856,13 +1912,13 @@
       <c r="AA12" s="5">
         <v>0</v>
       </c>
-      <c r="AB12" s="6" t="s">
+      <c r="AB12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
       <c r="AG12">
         <v>0</v>
       </c>
@@ -1913,38 +1969,38 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6" t="s">
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6" t="s">
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
     </row>
     <row r="14" spans="1:38" ht="18.75" customHeight="1">
       <c r="A14" s="1" t="s">
@@ -1974,38 +2030,38 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6" t="s">
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6" t="s">
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
     </row>
     <row r="15" spans="1:38" ht="18.75" customHeight="1">
       <c r="A15" s="1" t="s">
@@ -2038,38 +2094,38 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6" t="s">
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6" t="s">
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
     </row>
     <row r="16" spans="1:38" ht="18.75" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -2111,31 +2167,31 @@
       <c r="Q16" s="5">
         <v>0</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6" t="s">
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
     </row>
     <row r="17" spans="1:38" ht="18.75" customHeight="1">
       <c r="A17" s="1" t="s">
@@ -2168,38 +2224,38 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6" t="s">
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6" t="s">
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
     </row>
     <row r="18" spans="1:38" ht="18.75" customHeight="1">
       <c r="A18" s="1" t="s">
@@ -2232,38 +2288,38 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6" t="s">
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6" t="s">
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
     </row>
     <row r="19" spans="1:38" ht="18.75" customHeight="1">
       <c r="A19" s="1" t="s">
@@ -2296,34 +2352,34 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
     </row>
     <row r="20" spans="1:38" ht="18.75" customHeight="1">
       <c r="A20" s="1" t="s">
@@ -2356,34 +2412,34 @@
       <c r="L20">
         <v>1</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
     </row>
     <row r="21" spans="1:38" ht="18.75" customHeight="1">
       <c r="A21" s="1" t="s">
@@ -2392,6 +2448,15 @@
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
@@ -2410,38 +2475,38 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6" t="s">
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6" t="s">
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
     </row>
     <row r="22" spans="1:38" ht="18.75" customHeight="1">
       <c r="A22" s="1" t="s">
@@ -2450,6 +2515,15 @@
       <c r="B22" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
@@ -2468,38 +2542,38 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6" t="s">
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6" t="s">
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
     </row>
     <row r="23" spans="1:38" ht="18.75" customHeight="1">
       <c r="A23" s="1" t="s">
@@ -2508,6 +2582,9 @@
       <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>84</v>
       </c>
@@ -2529,38 +2606,38 @@
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6" t="s">
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6" t="s">
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
     </row>
     <row r="24" spans="1:38" ht="18.75" customHeight="1">
       <c r="A24" s="1" t="s">
@@ -2569,6 +2646,9 @@
       <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>85</v>
       </c>
@@ -2590,82 +2670,59 @@
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6" t="s">
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6" t="s">
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
     </row>
     <row r="25" spans="1:38" ht="18.75" customHeight="1"/>
     <row r="26" spans="1:38" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="W23:AL23"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="R24:V24"/>
-    <mergeCell ref="W24:AL24"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="W21:AL21"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="W22:AL22"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:V18"/>
-    <mergeCell ref="W18:AL18"/>
-    <mergeCell ref="M19:AL19"/>
-    <mergeCell ref="M20:AL20"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="W16:AL16"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="W17:AL17"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="W14:AL14"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="W15:AL15"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="AB12:AF12"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="W13:AL13"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="AB7:AF7"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="W8:AA8"/>
@@ -2674,22 +2731,45 @@
     <mergeCell ref="R9:V9"/>
     <mergeCell ref="W9:AA9"/>
     <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="W13:AL13"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="W14:AL14"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="W15:AL15"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="W16:AL16"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="W17:AL17"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="W18:AL18"/>
+    <mergeCell ref="M19:AL19"/>
+    <mergeCell ref="M20:AL20"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="W21:AL21"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="W22:AL22"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="W23:AL23"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="R24:V24"/>
+    <mergeCell ref="W24:AL24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/documents/ISA.xlsx
+++ b/documents/ISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naoya\OneDrive\ドキュメント\慶應義塾大学大学院\計算機システム設計論\compsys2018-6\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5376EE0-F862-41B1-BE12-5729E0B1DD5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A49CE4D8-C74B-4F9D-9719-A72EA33FFA17}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="命令" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="115">
   <si>
     <t>背景灰色は実装しない</t>
   </si>
@@ -304,10 +304,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>pc=paddr&lt;&lt;2, $15</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>imm</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -400,6 +396,77 @@
   </si>
   <si>
     <t>dmem(base+offset)=rt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jpush</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pc=paddr&lt;&lt;2, $31</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jpush paddr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jpop</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pop</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dmem($15)=pc+4, $15-=4, pc=paddr&lt;&lt;2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>push rs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pop rs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dmem($15)=rs, $15-=4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pc=dmem($15+4), $15+=4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rs=dmem($15+4), $15+=4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予約</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>alu_op</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デコーダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stack_op</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -903,17 +970,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL26"/>
+  <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
     <col min="7" max="38" width="3.375" customWidth="1"/>
@@ -925,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" t="str">
         <f>LEFT(RIGHT(HEX2BIN(LEFT(RIGHT($F$1,_xlfn.FLOOR.MATH(G$3/4)+1),1),4),MOD(G$3,4)+1),1)</f>
@@ -1085,7 +1152,9 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="G3" s="2">
         <v>31</v>
       </c>
@@ -1970,21 +2039,21 @@
         <v>0</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -2031,14 +2100,14 @@
         <v>1</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -2095,14 +2164,14 @@
         <v>0</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -2168,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -2204,7 +2273,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2225,14 +2294,14 @@
         <v>0</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -2289,14 +2358,14 @@
         <v>1</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -2389,7 +2458,7 @@
         <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>79</v>
@@ -2443,25 +2512,22 @@
     </row>
     <row r="21" spans="1:38" ht="18.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2476,22 +2542,18 @@
         <v>0</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
-      <c r="W21" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -2510,28 +2572,25 @@
     </row>
     <row r="22" spans="1:38" ht="18.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2540,59 +2599,105 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:38" ht="18.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>91</v>
+        <v>99</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2604,109 +2709,544 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:38" ht="18.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
+        <v>104</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9" t="s">
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-      <c r="AL24" s="9"/>
-    </row>
-    <row r="25" spans="1:38" ht="18.75" customHeight="1"/>
-    <row r="26" spans="1:38" ht="18.75" customHeight="1"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9"/>
+    </row>
+    <row r="26" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+    </row>
+    <row r="27" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+    </row>
+    <row r="28" spans="1:38" ht="18.75" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9"/>
+    </row>
+    <row r="29" spans="1:38" ht="18.75" customHeight="1"/>
+    <row r="30" spans="1:38" ht="18.75" customHeight="1">
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="F31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="66">
+    <mergeCell ref="M21:AL21"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="W27:AL27"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="R28:V28"/>
+    <mergeCell ref="W28:AL28"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:V25"/>
+    <mergeCell ref="W25:AL25"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="R26:V26"/>
+    <mergeCell ref="W26:AL26"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="W18:AL18"/>
+    <mergeCell ref="M19:AL19"/>
+    <mergeCell ref="M20:AL20"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="W16:AL16"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="W17:AL17"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="W14:AL14"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="W15:AL15"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="W13:AL13"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="M4:Q4"/>
     <mergeCell ref="R4:V4"/>
     <mergeCell ref="W4:AA4"/>
@@ -2715,65 +3255,10 @@
     <mergeCell ref="R5:V5"/>
     <mergeCell ref="W5:AA5"/>
     <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="AB11:AF11"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="AB12:AF12"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="W13:AL13"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="W14:AL14"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="W15:AL15"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="W16:AL16"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="W17:AL17"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:V18"/>
-    <mergeCell ref="W18:AL18"/>
-    <mergeCell ref="M19:AL19"/>
-    <mergeCell ref="M20:AL20"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="W21:AL21"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="W22:AL22"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="W23:AL23"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="R24:V24"/>
-    <mergeCell ref="W24:AL24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2782,7 +3267,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2939,6 +3424,9 @@
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
       <c r="C14">
         <v>0</v>
       </c>
@@ -2947,6 +3435,9 @@
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
       <c r="C15">
         <v>0</v>
       </c>
@@ -2955,6 +3446,9 @@
       <c r="A16">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
       <c r="C16">
         <v>0</v>
       </c>
@@ -2967,7 +3461,7 @@
         <v>73</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="18" spans="1:3">

--- a/documents/ISA.xlsx
+++ b/documents/ISA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="116">
   <si>
     <t xml:space="preserve">背景灰色は実装しない</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t xml:space="preserve">pop rs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs=rand()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rand rs</t>
   </si>
   <si>
     <t xml:space="preserve">lb</t>
@@ -611,10 +620,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL32"/>
+  <dimension ref="A1:AL33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO10" activeCellId="0" sqref="AO10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L26" activeCellId="0" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2603,22 +2612,19 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
@@ -2633,77 +2639,115 @@
         <v>0</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
+      <c r="R26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="E27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -2740,9 +2784,12 @@
         <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="D28" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -2755,19 +2802,19 @@
         <v>0</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -2819,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>0</v>
@@ -2831,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -2863,48 +2910,112 @@
       <c r="AK29" s="6"/>
       <c r="AL29" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F31" s="0" t="s">
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F32" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="71">
     <mergeCell ref="M4:Q4"/>
     <mergeCell ref="R4:V4"/>
     <mergeCell ref="W4:AA4"/>
@@ -2964,8 +3075,6 @@
     <mergeCell ref="M24:Q24"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="R26:V26"/>
-    <mergeCell ref="W26:AL26"/>
     <mergeCell ref="M27:Q27"/>
     <mergeCell ref="R27:V27"/>
     <mergeCell ref="W27:AL27"/>
@@ -2975,6 +3084,9 @@
     <mergeCell ref="M29:Q29"/>
     <mergeCell ref="R29:V29"/>
     <mergeCell ref="W29:AL29"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="W30:AL30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3006,13 +3118,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3031,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3042,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3053,7 +3165,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3064,7 +3176,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3075,7 +3187,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3086,7 +3198,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3097,7 +3209,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3108,7 +3220,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3119,7 +3231,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3130,7 +3242,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3141,7 +3253,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3152,7 +3264,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3163,7 +3275,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -3174,7 +3286,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -3185,7 +3297,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1023</v>
@@ -3196,7 +3308,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -3207,7 +3319,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -3218,7 +3330,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -3229,7 +3341,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -3240,7 +3352,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -3251,7 +3363,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -3262,7 +3374,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -3273,7 +3385,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -3284,7 +3396,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -3295,7 +3407,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -3306,7 +3418,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -3317,7 +3429,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -3328,7 +3440,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -3339,7 +3451,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -3350,7 +3462,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -3361,7 +3473,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>

--- a/documents/ISA.xlsx
+++ b/documents/ISA.xlsx
@@ -264,7 +264,7 @@
     <t xml:space="preserve">paddr</t>
   </si>
   <si>
-    <t xml:space="preserve">jal</t>
+    <t xml:space="preserve">g</t>
   </si>
   <si>
     <t xml:space="preserve">pc=paddr&lt;&lt;2, $31</t>
@@ -309,10 +309,10 @@
     <t xml:space="preserve">rand</t>
   </si>
   <si>
-    <t xml:space="preserve">rs=rand()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rand rs</t>
+    <t xml:space="preserve">rd=rand()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rand rd</t>
   </si>
   <si>
     <t xml:space="preserve">lb</t>
@@ -622,8 +622,8 @@
   </sheetPr>
   <dimension ref="A1:AL33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L26" activeCellId="0" sqref="L26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AQ35" activeCellId="0" sqref="AQ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2641,13 +2641,21 @@
       <c r="L26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="M26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="R26" s="9" t="n">
         <v>0</v>
       </c>
@@ -2663,19 +2671,19 @@
       <c r="V26" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="9" t="n">
+      <c r="W26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AB26" s="9" t="n">
@@ -3074,7 +3082,7 @@
     <mergeCell ref="M22:AL22"/>
     <mergeCell ref="M24:Q24"/>
     <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="W26:AA26"/>
     <mergeCell ref="M27:Q27"/>
     <mergeCell ref="R27:V27"/>
     <mergeCell ref="W27:AL27"/>
